--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,83 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41547</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41305</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,25 +749,25 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -769,74 +776,86 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -848,25 +867,31 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +908,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +954,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,75 +1004,87 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1050,17 +1095,23 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,8 +1125,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,43 +1136,49 @@
         <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>45600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,43 +1186,49 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-3700</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-45600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1245,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-45600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,87 +1356,99 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-5700</v>
       </c>
       <c r="H23" s="3">
         <v>-1300</v>
       </c>
       <c r="I23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-45900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1400,8 +1491,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-5700</v>
       </c>
       <c r="H26" s="3">
         <v>-1300</v>
       </c>
       <c r="I26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-45900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-5600</v>
       </c>
       <c r="H27" s="3">
         <v>-1300</v>
       </c>
       <c r="I27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-45900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1691,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1741,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1841,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-5600</v>
       </c>
       <c r="H33" s="3">
         <v>-1300</v>
       </c>
       <c r="I33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-45900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-5600</v>
       </c>
       <c r="H35" s="3">
         <v>-1300</v>
       </c>
       <c r="I35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-45900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41305</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,34 +2140,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
@@ -2004,17 +2177,23 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,8 +2236,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2080,11 +2265,11 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
@@ -2092,25 +2277,31 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2124,11 +2315,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
@@ -2145,8 +2336,14 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2168,11 +2365,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -2183,22 +2380,28 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
@@ -2207,16 +2410,16 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>5</v>
@@ -2224,17 +2427,23 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2251,17 +2460,17 @@
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2277,34 +2486,40 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -2315,14 +2530,20 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,34 +2551,34 @@
         <v>2000</v>
       </c>
       <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
@@ -2365,8 +2586,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2686,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2467,20 +2706,20 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -2488,8 +2727,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
@@ -2497,8 +2736,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2786,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,19 +2880,21 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2644,11 +2905,11 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
@@ -2656,52 +2917,58 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>400</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
@@ -2709,123 +2976,141 @@
       <c r="P58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2836,13 +3121,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2885,8 +3176,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3326,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3546,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3596,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-77500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-70100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-68800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-63200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3796,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-600</v>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41547</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41305</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-5600</v>
       </c>
       <c r="H81" s="3">
         <v>-1300</v>
       </c>
       <c r="I81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-45900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +4025,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3659,23 +4056,29 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,8 +4321,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3906,40 +4339,46 @@
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4395,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4000,8 +4441,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,23 +4541,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>100</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4112,28 +4571,34 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4661,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,8 +4811,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4338,40 +4829,46 @@
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,48 +4911,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,211 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41547</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41305</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -873,25 +883,28 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,38 +1039,38 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1101,8 +1124,8 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,58 +1153,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,49 +1216,52 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,47 +1280,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1297,49 +1331,52 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-45600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1347,32 +1384,35 @@
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1380,16 +1420,16 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1397,49 +1437,52 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1447,8 +1490,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,8 +1543,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,49 +1596,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1597,49 +1649,52 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1647,8 +1702,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,47 +1914,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1897,49 +1967,52 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -1947,8 +2020,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,49 +2073,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2047,63 +2126,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41547</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41305</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,37 +2228,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
@@ -2183,8 +2270,8 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2192,8 +2279,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,8 +2332,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2271,8 +2364,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
@@ -2283,8 +2376,8 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2292,19 +2385,22 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2321,8 +2417,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
@@ -2342,8 +2438,11 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2371,8 +2470,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
@@ -2386,43 +2485,46 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
+      <c r="L46" s="3">
+        <v>100</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
@@ -2433,8 +2535,8 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2442,13 +2544,16 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2466,14 +2571,14 @@
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2492,8 +2597,11 @@
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,8 +2611,8 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -2512,8 +2620,8 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2521,8 +2629,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
@@ -2536,14 +2644,17 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,23 +2668,23 @@
         <v>2000</v>
       </c>
       <c r="G49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2583,17 +2694,20 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,25 +2809,28 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2721,8 +2841,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -2733,17 +2853,20 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,38 +2915,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2400</v>
       </c>
       <c r="F54" s="3">
         <v>2400</v>
       </c>
       <c r="G54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2833,8 +2959,8 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2842,8 +2968,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,8 +3012,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2894,10 +3025,10 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2911,8 +3042,8 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
@@ -2923,8 +3054,8 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -2932,37 +3063,40 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
         <v>2100</v>
       </c>
       <c r="F58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -2973,17 +3107,20 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2991,29 +3128,29 @@
         <v>6300</v>
       </c>
       <c r="E59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3023,8 +3160,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3032,38 +3169,41 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3073,17 +3213,20 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3094,25 +3237,25 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3127,13 +3270,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,38 +3487,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4900</v>
       </c>
       <c r="I66" s="3">
         <v>4900</v>
       </c>
       <c r="J66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3373,17 +3531,20 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
-        <v>700</v>
+      <c r="P66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,38 +3773,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3643,17 +3817,20 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1900</v>
       </c>
       <c r="R72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,38 +3985,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3843,8 +4029,8 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
-        <v>-600</v>
+      <c r="P76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q76" s="3">
         <v>-600</v>
@@ -3852,8 +4038,11 @@
       <c r="R76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,104 +4091,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41547</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41305</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4007,8 +4202,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4062,14 +4261,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,26 +4774,29 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4577,19 +4807,19 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="N94" s="3">
+        <v>-100</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4597,8 +4827,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5060,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,214 +665,224 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41547</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41305</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
@@ -886,25 +896,28 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1047,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,38 +1062,38 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1083,8 +1103,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1127,8 +1150,8 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,50 +1314,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1334,52 +1368,55 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-45600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1387,35 +1424,38 @@
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
@@ -1423,16 +1463,16 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1440,52 +1480,55 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1493,8 +1536,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,8 +1592,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,52 +1648,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1652,52 +1704,55 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1705,8 +1760,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,50 +1984,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1970,52 +2040,55 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2023,8 +2096,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,52 +2152,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2129,66 +2208,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41547</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41305</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,40 +2315,41 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
@@ -2273,8 +2360,8 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2282,8 +2369,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,8 +2425,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2367,8 +2460,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
@@ -2379,8 +2472,8 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2388,8 +2481,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2420,8 +2516,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
@@ -2441,8 +2537,11 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2473,8 +2572,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
@@ -2488,14 +2587,17 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2503,31 +2605,31 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
+      <c r="M46" s="3">
+        <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
@@ -2538,8 +2640,8 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2547,8 +2649,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2574,14 +2679,14 @@
         <v>100</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2600,8 +2705,11 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2614,8 +2722,8 @@
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -2623,8 +2731,8 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2632,8 +2740,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
@@ -2647,19 +2755,22 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
@@ -2671,23 +2782,23 @@
         <v>2000</v>
       </c>
       <c r="H49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2697,17 +2808,20 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +2929,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2844,8 +2964,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -2856,17 +2976,20 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,8 +3041,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2927,32 +3053,32 @@
         <v>2200</v>
       </c>
       <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2400</v>
       </c>
       <c r="G54" s="3">
         <v>2400</v>
       </c>
       <c r="H54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2962,8 +3088,8 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2971,8 +3097,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,8 +3143,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3028,10 +3159,10 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3045,8 +3176,8 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
@@ -3057,8 +3188,8 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3066,40 +3197,43 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2100</v>
       </c>
       <c r="F58" s="3">
         <v>2100</v>
       </c>
       <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -3110,50 +3244,53 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E59" s="3">
         <v>6300</v>
       </c>
       <c r="F59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3163,8 +3300,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3172,41 +3309,44 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>9100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3216,22 +3356,25 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3240,25 +3383,25 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1100</v>
       </c>
       <c r="L61" s="3">
         <v>1100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3273,13 +3416,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,41 +3645,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4900</v>
       </c>
       <c r="J66" s="3">
         <v>4900</v>
       </c>
       <c r="K66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3534,17 +3692,20 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
-        <v>700</v>
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
       <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,41 +3947,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3820,17 +3994,20 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1900</v>
       </c>
       <c r="S72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,41 +4171,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4032,8 +4218,8 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-600</v>
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R76" s="3">
         <v>-600</v>
@@ -4041,8 +4227,11 @@
       <c r="S76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,110 +4283,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41547</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41305</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4205,8 +4400,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4424,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4264,14 +4463,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4279,8 +4478,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,8 +4758,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4553,52 +4770,55 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +4838,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4671,8 +4892,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,29 +5004,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4810,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>-100</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4830,8 +5060,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,8 +5306,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5072,52 +5318,55 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,57 +5418,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,136 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41547</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>41305</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -796,98 +803,110 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>800</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -899,25 +918,31 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +963,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1021,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,13 +1083,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1065,49 +1104,55 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,11 +1183,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1153,17 +1198,23 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1232,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1600</v>
       </c>
       <c r="H17" s="3">
         <v>1800</v>
       </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>45600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3700</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-3700</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-45600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,232 +1380,258 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-45600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-5700</v>
       </c>
       <c r="L23" s="3">
         <v>-1300</v>
       </c>
       <c r="M23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-45900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,8 +1686,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1748,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-5700</v>
       </c>
       <c r="L26" s="3">
         <v>-1300</v>
       </c>
       <c r="M26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-45900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-5600</v>
       </c>
       <c r="L27" s="3">
         <v>-1300</v>
       </c>
       <c r="M27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-45900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1934,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1875,8 +1996,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +2058,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,120 +2120,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-5600</v>
       </c>
       <c r="L33" s="3">
         <v>-1300</v>
       </c>
       <c r="M33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-45900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2306,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-5600</v>
       </c>
       <c r="L35" s="3">
         <v>-1300</v>
       </c>
       <c r="M35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-45900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>41547</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>41305</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2463,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,46 +2487,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
@@ -2363,17 +2536,23 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2428,8 +2607,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2463,11 +2648,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
@@ -2475,37 +2660,43 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2519,11 +2710,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
@@ -2540,13 +2731,19 @@
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2575,11 +2772,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
@@ -2590,34 +2787,40 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -2626,16 +2829,16 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>5</v>
@@ -2643,31 +2846,37 @@
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2682,17 +2891,17 @@
         <v>100</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2708,8 +2917,14 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2725,29 +2940,29 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -2758,25 +2973,31 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
-        <v>2000</v>
-      </c>
       <c r="F49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -2785,34 +3006,34 @@
         <v>2000</v>
       </c>
       <c r="I49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
@@ -2820,8 +3041,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +3103,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,31 +3165,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2967,11 +3206,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
@@ -2979,8 +3218,8 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
@@ -2988,8 +3227,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3289,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3379,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,13 +3403,15 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3162,13 +3423,13 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3179,11 +3440,11 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
@@ -3191,64 +3452,70 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>400</v>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
@@ -3256,159 +3523,177 @@
       <c r="T58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3419,13 +3704,19 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3480,8 +3771,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3833,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3895,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3957,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +4047,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +4105,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4167,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3894,8 +4229,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4291,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-80500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-79700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-78700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-76800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-76900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-77500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-70100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-68800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-63200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-61900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4415,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4477,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4539,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-600</v>
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4663,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>41547</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>41305</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-5600</v>
       </c>
       <c r="L81" s="3">
         <v>-1300</v>
       </c>
       <c r="M81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-45900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,8 +4820,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4466,23 +4863,29 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4940,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +5002,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +5064,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +5126,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,19 +5188,25 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
@@ -4785,40 +5218,46 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,8 +5278,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4895,8 +5336,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5398,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,35 +5460,41 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>100</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5043,28 +5502,34 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5550,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5608,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5670,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5732,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,22 +5794,28 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
@@ -5333,40 +5824,46 @@
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5421,60 +5918,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,167 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41547</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41305</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,91 +833,94 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -924,25 +934,28 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,17 +1106,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1110,38 +1130,38 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>6700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1151,8 +1171,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1212,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1204,8 +1227,8 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1300</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>-1300</v>
       </c>
       <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-45600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,59 +1415,60 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1444,61 +1478,64 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-45600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1506,44 +1543,47 @@
       <c r="V21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
@@ -1551,16 +1591,16 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
@@ -1568,61 +1608,64 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-45900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1630,8 +1673,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,8 +1738,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,61 +1803,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-45900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1816,61 +1868,64 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1878,8 +1933,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,59 +2193,62 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2188,61 +2258,64 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-45900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2250,8 +2323,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,61 +2388,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-45900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2374,75 +2453,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41547</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41305</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,49 +2575,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
@@ -2542,8 +2629,8 @@
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2551,8 +2638,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,13 +2703,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2654,8 +2747,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
@@ -2666,8 +2759,8 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2675,31 +2768,34 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2716,8 +2812,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>5</v>
@@ -2737,17 +2833,20 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2778,8 +2877,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
@@ -2793,55 +2892,58 @@
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
+      <c r="P46" s="3">
+        <v>100</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>5</v>
@@ -2852,8 +2954,8 @@
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2861,25 +2963,28 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2897,14 +3002,14 @@
         <v>100</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2923,8 +3028,11 @@
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2946,8 +3054,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -2955,8 +3063,8 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2964,8 +3072,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
@@ -2979,14 +3087,17 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,13 +3105,13 @@
         <v>2500</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
@@ -3012,23 +3123,23 @@
         <v>2000</v>
       </c>
       <c r="K49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3038,17 +3149,20 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,16 +3288,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -3197,8 +3317,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3212,8 +3332,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
@@ -3224,17 +3344,20 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,50 +3418,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2200</v>
       </c>
       <c r="H54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I54" s="3">
         <v>2500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2400</v>
       </c>
       <c r="J54" s="3">
         <v>2400</v>
       </c>
       <c r="K54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3348,8 +3474,8 @@
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="T54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3357,8 +3483,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,16 +3535,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3429,10 +3560,10 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3446,8 +3577,8 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
@@ -3458,8 +3589,8 @@
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3467,8 +3598,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,40 +3610,40 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>2100</v>
       </c>
       <c r="J58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>300</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -3520,59 +3654,62 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6300</v>
       </c>
       <c r="H59" s="3">
         <v>6300</v>
       </c>
       <c r="I59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3582,8 +3719,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3591,50 +3728,53 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3644,17 +3784,20 @@
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3662,14 +3805,14 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
@@ -3677,25 +3820,25 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1100</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3710,13 +3853,16 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,50 +4118,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4900</v>
       </c>
       <c r="M66" s="3">
         <v>4900</v>
       </c>
       <c r="N66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4016,17 +4174,20 @@
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="3">
-        <v>700</v>
+      <c r="T66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,50 +4468,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-80800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-70100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4350,17 +4524,20 @@
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1900</v>
       </c>
       <c r="V72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,50 +4728,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4598,8 +4784,8 @@
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T76" s="3">
-        <v>-600</v>
+      <c r="T76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U76" s="3">
         <v>-600</v>
@@ -4607,8 +4793,11 @@
       <c r="V76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,128 +4858,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41547</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41305</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-45900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -4798,8 +4993,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4869,14 +5068,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4884,8 +5083,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,8 +5500,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5342,8 +5563,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,13 +5693,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5480,24 +5710,24 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5508,19 +5738,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="R94" s="3">
+        <v>-100</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5528,8 +5758,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,70 +6043,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,265 +665,275 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41547</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>41305</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
@@ -937,25 +947,28 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,20 +1126,23 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1133,38 +1153,38 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>6700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1174,8 +1194,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1238,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1230,8 +1253,8 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-45600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,62 +1449,63 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1515,67 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-45600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
@@ -1546,8 +1583,11 @@
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,38 +1595,38 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
@@ -1594,16 +1634,16 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1611,64 +1651,67 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-45900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1676,8 +1719,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1741,8 +1787,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,64 +1855,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-45900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1871,64 +1923,67 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -1936,8 +1991,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,62 +2263,65 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2261,64 +2331,67 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-45900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2326,8 +2399,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,64 +2467,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-45900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2456,78 +2535,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41547</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>41305</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,8 +2662,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2585,43 +2672,43 @@
         <v>900</v>
       </c>
       <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
@@ -2632,8 +2719,8 @@
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2641,8 +2728,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,17 +2796,20 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2750,8 +2843,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
@@ -2762,8 +2855,8 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2771,34 +2864,37 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2815,8 +2911,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
@@ -2836,8 +2932,11 @@
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2845,11 +2944,11 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2880,8 +2979,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
@@ -2895,58 +2994,61 @@
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
+      <c r="Q46" s="3">
+        <v>100</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
@@ -2957,8 +3059,8 @@
       <c r="T46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="U46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -2966,8 +3068,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>600</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -3005,14 +3110,14 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,8 +3136,11 @@
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3057,8 +3165,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -3066,8 +3174,8 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3075,8 +3183,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
@@ -3090,14 +3198,17 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,13 +3219,13 @@
         <v>2500</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I49" s="3">
         <v>2000</v>
@@ -3126,23 +3237,23 @@
         <v>2000</v>
       </c>
       <c r="L49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3152,17 +3263,20 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,8 +3408,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3302,8 +3422,8 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3320,8 +3440,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3335,8 +3455,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
@@ -3347,17 +3467,20 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,53 +3544,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>2200</v>
       </c>
       <c r="I54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J54" s="3">
         <v>2500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2400</v>
       </c>
       <c r="K54" s="3">
         <v>2400</v>
       </c>
       <c r="L54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,8 +3603,8 @@
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
+      <c r="U54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3486,8 +3612,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,19 +3666,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3563,10 +3694,10 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3580,8 +3711,8 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
+      <c r="Q57" s="3">
+        <v>100</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
@@ -3592,8 +3723,8 @@
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3601,8 +3732,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,40 +3747,40 @@
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2100</v>
       </c>
       <c r="J58" s="3">
         <v>2100</v>
       </c>
       <c r="K58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="Q58" s="3">
+        <v>300</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
@@ -3657,17 +3791,20 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,44 +3812,44 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6300</v>
       </c>
       <c r="I59" s="3">
         <v>6300</v>
       </c>
       <c r="J59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3859,8 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -3731,53 +3868,56 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3787,35 +3927,38 @@
       <c r="T60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
@@ -3823,25 +3966,25 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1100</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3856,36 +3999,39 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3926,8 +4072,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,53 +4276,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4900</v>
       </c>
       <c r="N66" s="3">
         <v>4900</v>
       </c>
       <c r="O66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4177,17 +4335,20 @@
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="3">
-        <v>700</v>
+      <c r="U66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V66" s="3">
         <v>700</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,53 +4642,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-70100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4527,17 +4701,20 @@
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1900</v>
       </c>
       <c r="W72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,53 +4914,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4787,8 +4973,8 @@
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U76" s="3">
-        <v>-600</v>
+      <c r="U76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V76" s="3">
         <v>-600</v>
@@ -4796,8 +4982,11 @@
       <c r="W76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,134 +5050,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41547</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>41305</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-45900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -4996,8 +5191,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,8 +5219,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5071,14 +5270,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5086,8 +5285,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,8 +5721,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5566,8 +5787,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,13 +5923,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5713,24 +5943,24 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5741,19 +5971,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
+      <c r="S94" s="3">
+        <v>-100</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5761,8 +5991,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,73 +6289,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6176,69 +6425,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,251 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>41547</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>41305</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,35 +917,35 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
@@ -950,25 +959,28 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,23 +1145,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1156,38 +1175,38 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>6700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1197,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,8 +1263,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1256,8 +1278,8 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1265,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1300</v>
       </c>
       <c r="G18" s="3">
         <v>-1300</v>
       </c>
       <c r="H18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
       </c>
       <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-45600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,65 +1482,66 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1518,67 +1551,70 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-45600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
@@ -1586,50 +1622,53 @@
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
@@ -1637,16 +1676,16 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
@@ -1654,67 +1693,70 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-45900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1722,8 +1764,11 @@
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,67 +1906,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-45900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -1926,67 +1977,70 @@
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -1994,8 +2048,11 @@
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,65 +2332,68 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2334,67 +2403,70 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-45900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2402,8 +2474,11 @@
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,67 +2545,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-45900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2538,81 +2616,87 @@
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>41547</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>41305</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,55 +2748,56 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>900</v>
       </c>
       <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
@@ -2722,8 +2808,8 @@
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2731,8 +2817,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,20 +2888,23 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2846,8 +2938,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
@@ -2858,8 +2950,8 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2867,8 +2959,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2879,25 +2974,25 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2914,8 +3009,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
@@ -2935,22 +3030,25 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2982,8 +3080,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
@@ -2997,61 +3095,64 @@
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
+      <c r="R46" s="3">
+        <v>100</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>5</v>
@@ -3062,8 +3163,8 @@
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="V46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3071,8 +3172,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3083,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>600</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -3113,14 +3217,14 @@
         <v>100</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3139,8 +3243,11 @@
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3168,8 +3275,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
@@ -3177,8 +3284,8 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3186,8 +3293,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
@@ -3201,19 +3308,22 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
         <v>2500</v>
@@ -3222,13 +3332,13 @@
         <v>2500</v>
       </c>
       <c r="G49" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="H49" s="3">
         <v>1900</v>
       </c>
       <c r="I49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J49" s="3">
         <v>2000</v>
@@ -3240,23 +3350,23 @@
         <v>2000</v>
       </c>
       <c r="M49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3266,17 +3376,20 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3425,8 +3544,8 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3443,8 +3562,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3458,8 +3577,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
@@ -3470,17 +3589,20 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,56 +3669,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>2200</v>
       </c>
       <c r="J54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2400</v>
       </c>
       <c r="L54" s="3">
         <v>2400</v>
       </c>
       <c r="M54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3606,8 +3731,8 @@
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
+      <c r="V54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3615,8 +3740,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,22 +3796,23 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3697,10 +3827,10 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3714,8 +3844,8 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
+      <c r="R57" s="3">
+        <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
@@ -3726,8 +3856,8 @@
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3735,13 +3865,16 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
@@ -3750,40 +3883,40 @@
         <v>900</v>
       </c>
       <c r="G58" s="3">
+        <v>900</v>
+      </c>
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>2100</v>
       </c>
       <c r="L58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="R58" s="3">
+        <v>300</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
@@ -3794,65 +3927,68 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6300</v>
       </c>
       <c r="J59" s="3">
         <v>6300</v>
       </c>
       <c r="K59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3862,8 +3998,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -3871,56 +4007,59 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3930,38 +4069,41 @@
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
@@ -3969,25 +4111,25 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1100</v>
       </c>
       <c r="Q61" s="3">
         <v>1100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4002,24 +4144,27 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4033,8 +4178,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4075,8 +4220,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,56 +4433,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4900</v>
       </c>
       <c r="O66" s="3">
         <v>4900</v>
       </c>
       <c r="P66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4338,17 +4495,20 @@
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V66" s="3">
-        <v>700</v>
+      <c r="V66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W66" s="3">
         <v>700</v>
       </c>
       <c r="X66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,56 +4815,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-68800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4704,17 +4877,20 @@
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-1900</v>
       </c>
       <c r="X72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,56 +5099,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4976,8 +5161,8 @@
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V76" s="3">
-        <v>-600</v>
+      <c r="V76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W76" s="3">
         <v>-600</v>
@@ -4985,8 +5170,11 @@
       <c r="X76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,140 +5241,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>41547</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>41305</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-45900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -5194,8 +5388,11 @@
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,13 +5417,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5273,14 +5471,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5288,8 +5486,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,8 +5941,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5790,8 +6010,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,8 +6152,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5946,24 +6175,24 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5974,19 +6203,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
+      <c r="T94" s="3">
+        <v>-100</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5994,8 +6223,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6088,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6428,8 +6676,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6437,63 +6688,66 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,170 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>41547</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>41305</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1000</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>1100</v>
       </c>
       <c r="N8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
@@ -829,128 +837,140 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>800</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>800</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>600</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -962,25 +982,31 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1032,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +1105,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,29 +1182,35 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1178,49 +1218,55 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>6700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1266,11 +1312,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
@@ -1281,17 +1327,23 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1366,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
       </c>
       <c r="M17" s="3">
         <v>1800</v>
       </c>
       <c r="N17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>45600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
-        <v>-3700</v>
+        <v>-400</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-3700</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-45600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,292 +1549,318 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-45600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-5700</v>
       </c>
       <c r="Q23" s="3">
         <v>-1300</v>
       </c>
       <c r="R23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-45900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1838,8 +1930,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +2007,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-5700</v>
       </c>
       <c r="Q26" s="3">
         <v>-1300</v>
       </c>
       <c r="R26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-45900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5400</v>
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
         <v>-1400</v>
       </c>
       <c r="F27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q27" s="3">
         <v>-1300</v>
       </c>
       <c r="R27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-45900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2238,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2315,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2392,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2469,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5400</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
         <v>-1400</v>
       </c>
       <c r="F33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q33" s="3">
         <v>-1300</v>
       </c>
       <c r="R33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-45900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2700,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5400</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
         <v>-1400</v>
       </c>
       <c r="F35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q35" s="3">
         <v>-1300</v>
       </c>
       <c r="R35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-45900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>41547</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>41305</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2892,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,61 +2921,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
@@ -2811,17 +2985,23 @@
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,26 +3071,32 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2941,11 +3127,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
@@ -2953,22 +3139,28 @@
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2977,28 +3169,28 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3012,11 +3204,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
@@ -3033,29 +3225,35 @@
       <c r="Y44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -3083,11 +3281,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
@@ -3098,49 +3296,55 @@
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
@@ -3149,16 +3353,16 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>5</v>
@@ -3166,22 +3370,28 @@
       <c r="V46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3190,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -3220,17 +3430,17 @@
         <v>100</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3246,16 +3456,22 @@
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3278,29 +3494,29 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
@@ -3311,40 +3527,46 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
-        <v>2500</v>
-      </c>
       <c r="F49" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
         <v>2500</v>
       </c>
       <c r="H49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2000</v>
       </c>
       <c r="L49" s="3">
         <v>2000</v>
@@ -3353,34 +3575,34 @@
         <v>2000</v>
       </c>
       <c r="N49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
@@ -3388,8 +3610,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3687,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,16 +3764,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3547,11 +3787,11 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3565,11 +3805,11 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3580,11 +3820,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
@@ -3592,8 +3832,8 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
@@ -3601,8 +3841,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3918,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +4028,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,28 +4057,30 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3830,13 +4092,13 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3847,11 +4109,11 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
@@ -3859,79 +4121,85 @@
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
       <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
-        <v>400</v>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
@@ -3939,204 +4207,222 @@
       <c r="Y58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
-      <c r="X59" s="3">
-        <v>100</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4147,31 +4433,37 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4181,11 +4473,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4223,8 +4515,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4592,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4669,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4746,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4856,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4929,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +5006,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +5083,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +5160,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-86200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-84300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-82900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-81900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-80800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-80500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-79700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-78700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-76800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-76900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-77500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-70100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-68800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-63200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-61900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5314,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5391,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5468,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-7000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-600</v>
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5622,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>41547</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>41305</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5400</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
         <v>-1400</v>
       </c>
       <c r="F81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q81" s="3">
         <v>-1300</v>
       </c>
       <c r="R81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-45900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,8 +5814,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5430,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5474,23 +5872,29 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5964,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +6041,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +6118,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +6195,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,34 +6272,40 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
@@ -5883,40 +6317,46 @@
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,8 +6382,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6013,8 +6455,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6532,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,13 +6609,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6178,27 +6638,27 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6206,28 +6666,34 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6719,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6792,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6869,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6946,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,37 +7023,43 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>500</v>
@@ -6576,40 +7068,46 @@
         <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +7177,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,326 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>41547</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>41305</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
@@ -988,25 +998,28 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,20 +1220,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1224,38 +1244,38 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>6700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1265,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,8 +1341,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
@@ -1333,8 +1356,8 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>45600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1300</v>
       </c>
       <c r="J18" s="3">
         <v>-1300</v>
       </c>
       <c r="K18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-45600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1584,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,65 +1594,65 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1628,76 +1662,79 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-45600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
@@ -1705,59 +1742,62 @@
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
@@ -1765,16 +1805,16 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
@@ -1782,76 +1822,79 @@
       <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-45900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
@@ -1859,8 +1902,11 @@
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1936,8 +1982,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,76 +2062,79 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-45900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
@@ -2090,76 +2142,79 @@
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-45900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
@@ -2167,8 +2222,11 @@
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2542,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2484,65 +2554,65 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2552,76 +2622,79 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-45900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
@@ -2629,8 +2702,11 @@
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,76 +2782,79 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-45900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
@@ -2783,90 +2862,96 @@
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>41547</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>41305</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,64 +3009,65 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>900</v>
       </c>
       <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
@@ -2991,8 +3078,8 @@
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3000,8 +3087,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,29 +3167,32 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -3133,8 +3226,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
@@ -3145,8 +3238,8 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3154,17 +3247,20 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
@@ -3175,25 +3271,25 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3210,8 +3306,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
@@ -3231,17 +3327,20 @@
       <c r="AA44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -3249,13 +3348,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3287,8 +3386,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
@@ -3302,70 +3401,73 @@
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
         <v>7000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
+      <c r="U46" s="3">
+        <v>100</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>5</v>
@@ -3376,8 +3478,8 @@
       <c r="X46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
@@ -3385,16 +3487,19 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3406,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>600</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -3436,14 +3541,14 @@
         <v>100</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3462,19 +3567,22 @@
       <c r="AA47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3500,8 +3608,8 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -3509,8 +3617,8 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3518,8 +3626,8 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
@@ -3533,28 +3641,31 @@
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E49" s="3">
         <v>12000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1700</v>
       </c>
       <c r="F49" s="3">
         <v>1700</v>
       </c>
       <c r="G49" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>2500</v>
@@ -3563,13 +3674,13 @@
         <v>2500</v>
       </c>
       <c r="J49" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
       </c>
       <c r="L49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M49" s="3">
         <v>2000</v>
@@ -3581,23 +3692,23 @@
         <v>2000</v>
       </c>
       <c r="P49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>1100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3607,17 +3718,20 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,8 +3887,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3782,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3793,8 +3913,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -3811,8 +3931,8 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3826,8 +3946,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
@@ -3838,17 +3958,20 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,65 +4047,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2200</v>
       </c>
       <c r="M54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N54" s="3">
         <v>2500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2400</v>
       </c>
       <c r="O54" s="3">
         <v>2400</v>
       </c>
       <c r="P54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3992,8 +4118,8 @@
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -4001,8 +4127,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,31 +4189,32 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -4098,10 +4229,10 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -4115,8 +4246,8 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
+      <c r="U57" s="3">
+        <v>100</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
@@ -4127,8 +4258,8 @@
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4136,22 +4267,25 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
@@ -4160,40 +4294,40 @@
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2100</v>
       </c>
       <c r="N58" s="3">
         <v>2100</v>
       </c>
       <c r="O58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>300</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
@@ -4204,74 +4338,77 @@
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>6300</v>
       </c>
       <c r="M59" s="3">
         <v>6300</v>
       </c>
       <c r="N59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4281,8 +4418,8 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4290,65 +4427,68 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4358,47 +4498,50 @@
       <c r="X60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
@@ -4406,25 +4549,25 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1100</v>
       </c>
       <c r="T61" s="3">
         <v>1100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4439,33 +4582,36 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4479,8 +4625,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4521,8 +4667,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,65 +4907,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E66" s="3">
         <v>22700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4900</v>
       </c>
       <c r="R66" s="3">
         <v>4900</v>
       </c>
       <c r="S66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4820,17 +4978,20 @@
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y66" s="3">
-        <v>700</v>
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z66" s="3">
         <v>700</v>
       </c>
       <c r="AA66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,65 +5337,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-81900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-80800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-80500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-70100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-63200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5234,17 +5408,20 @@
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-1900</v>
       </c>
       <c r="AA72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,65 +5657,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
@@ -5542,8 +5728,8 @@
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="3">
-        <v>-600</v>
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z76" s="3">
         <v>-600</v>
@@ -5551,8 +5737,11 @@
       <c r="AA76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,158 +5817,164 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>41547</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>41305</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-45900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
@@ -5787,8 +5982,11 @@
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,22 +6014,23 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5878,14 +6077,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5893,8 +6092,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,8 +6492,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6287,76 +6504,79 @@
         <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,8 +6604,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6461,8 +6682,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,17 +6842,20 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6644,24 +6874,24 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6672,19 +6902,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+      <c r="W94" s="3">
+        <v>-100</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -6692,8 +6922,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,85 +7272,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,190 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>41547</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>41305</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F8" s="3">
         <v>6600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O8" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>1100</v>
       </c>
       <c r="Q8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>400</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
@@ -850,146 +857,158 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>800</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
+      <c r="Y9" s="3">
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -1001,25 +1020,31 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
+      <c r="Y10" s="3">
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1073,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1155,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,38 +1241,44 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1247,49 +1286,55 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>6700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,11 +1389,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1359,17 +1404,23 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1446,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>1800</v>
       </c>
       <c r="Q17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>45600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1400</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
+        <v>-2000</v>
       </c>
       <c r="F18" s="3">
         <v>-1400</v>
       </c>
       <c r="G18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-700</v>
       </c>
       <c r="Q18" s="3">
-        <v>-3700</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="S18" s="3">
         <v>-3700</v>
       </c>
       <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-45600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,328 +1650,354 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-45600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>600</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
+        <v>600</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-5700</v>
       </c>
       <c r="T23" s="3">
         <v>-1300</v>
       </c>
       <c r="U23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-45900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1985,8 +2076,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2162,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-5700</v>
       </c>
       <c r="T26" s="3">
         <v>-1300</v>
       </c>
       <c r="U26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-45900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-5400</v>
       </c>
       <c r="H27" s="3">
         <v>-1400</v>
       </c>
       <c r="I27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-5600</v>
       </c>
       <c r="T27" s="3">
         <v>-1300</v>
       </c>
       <c r="U27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-45900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2420,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2385,8 +2506,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2592,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2678,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-5400</v>
       </c>
       <c r="H33" s="3">
         <v>-1400</v>
       </c>
       <c r="I33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-5600</v>
       </c>
       <c r="T33" s="3">
         <v>-1300</v>
       </c>
       <c r="U33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-45900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2936,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-5400</v>
       </c>
       <c r="H35" s="3">
         <v>-1400</v>
       </c>
       <c r="I35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-5600</v>
       </c>
       <c r="T35" s="3">
         <v>-1300</v>
       </c>
       <c r="U35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-45900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>41547</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>41305</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3149,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,70 +3181,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
@@ -3081,17 +3254,23 @@
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,35 +3349,41 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3229,11 +3414,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
@@ -3241,32 +3426,38 @@
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -3274,28 +3465,28 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3309,11 +3500,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>5</v>
@@ -3330,38 +3521,44 @@
       <c r="AB44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3389,11 +3586,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
@@ -3404,58 +3601,64 @@
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="E46" s="3">
         <v>7000</v>
       </c>
       <c r="F46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
@@ -3464,16 +3667,16 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>5</v>
@@ -3481,31 +3684,37 @@
       <c r="Y46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+      <c r="E47" s="3">
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3514,22 +3723,22 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -3544,17 +3753,17 @@
         <v>100</v>
       </c>
       <c r="T47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3570,25 +3779,31 @@
       <c r="AB47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3611,29 +3826,29 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
@@ -3644,49 +3859,55 @@
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F49" s="3">
         <v>11900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2500</v>
       </c>
       <c r="J49" s="3">
         <v>2500</v>
       </c>
       <c r="K49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2000</v>
       </c>
       <c r="O49" s="3">
         <v>2000</v>
@@ -3695,34 +3916,34 @@
         <v>2000</v>
       </c>
       <c r="Q49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S49" s="3">
         <v>2100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>1100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
@@ -3730,8 +3951,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +4037,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,13 +4123,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3905,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3916,11 +4155,11 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -3934,11 +4173,11 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3949,11 +4188,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
@@ -3961,8 +4200,8 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
@@ -3970,8 +4209,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4295,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F54" s="3">
         <v>20800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4417,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,37 +4449,39 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -4232,13 +4493,13 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4249,11 +4510,11 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
@@ -4261,88 +4522,94 @@
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>100</v>
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
       </c>
       <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z58" s="3">
-        <v>400</v>
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>5</v>
@@ -4350,231 +4617,249 @@
       <c r="AB58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>100</v>
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4585,40 +4870,46 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>400</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4628,11 +4919,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4670,8 +4961,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +5047,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +5133,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5219,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F66" s="3">
         <v>24100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5341,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5423,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5509,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5595,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5681,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-92700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-91100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-87600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-86200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-84300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-82900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-81900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-80800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-80500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-79700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-78700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-76800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-77500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-70100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-68800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-63200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-61900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5853,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5939,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +6025,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-600</v>
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6197,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>41547</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>41305</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-5400</v>
       </c>
       <c r="H81" s="3">
         <v>-1400</v>
       </c>
       <c r="I81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-5600</v>
       </c>
       <c r="T81" s="3">
         <v>-1300</v>
       </c>
       <c r="U81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-45900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,8 +6410,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6024,10 +6421,10 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -6036,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6080,23 +6477,29 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6578,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6664,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6750,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6836,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,43 +6922,49 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
@@ -6543,40 +6976,46 @@
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,8 +7044,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6685,8 +7126,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +7212,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,8 +7298,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6854,14 +7313,14 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6877,27 +7336,27 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6905,28 +7364,34 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7420,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7035,8 +7502,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7588,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7674,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,46 +7760,52 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
@@ -7323,40 +7814,46 @@
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7932,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SING_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>SING</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,364 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>41547</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>41305</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
       </c>
       <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
@@ -1026,25 +1036,28 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,20 +1264,23 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1268,20 +1288,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1292,38 +1312,38 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
       <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>6700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
@@ -1333,8 +1353,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1395,8 +1418,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
@@ -1410,8 +1433,8 @@
       <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>9000</v>
       </c>
       <c r="E17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>45600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AC17" s="3">
-        <v>100</v>
-      </c>
       <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1300</v>
       </c>
       <c r="M18" s="3">
         <v>-1300</v>
       </c>
       <c r="N18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-700</v>
       </c>
       <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-45600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,83 +1685,84 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1738,85 +1772,88 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-45600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
@@ -1824,68 +1861,71 @@
       <c r="AD21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
@@ -1893,16 +1933,16 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>5</v>
@@ -1910,85 +1950,88 @@
       <c r="AD22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
@@ -1996,8 +2039,11 @@
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2082,8 +2128,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,85 +2217,88 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
@@ -2254,85 +2306,88 @@
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
@@ -2340,8 +2395,11 @@
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,83 +2751,86 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2770,85 +2840,88 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
@@ -2856,8 +2929,11 @@
       <c r="AD33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,85 +3018,88 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
@@ -3028,99 +3107,105 @@
       <c r="AD35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>41547</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>41305</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,8 +3269,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3192,64 +3279,64 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
@@ -3260,8 +3347,8 @@
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
@@ -3269,8 +3356,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,38 +3445,41 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3420,8 +3513,8 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>5</v>
@@ -3432,8 +3525,8 @@
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -3441,8 +3534,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3450,17 +3546,17 @@
         <v>3200</v>
       </c>
       <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>2500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
@@ -3471,25 +3567,25 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3506,8 +3602,8 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>5</v>
@@ -3527,8 +3623,11 @@
       <c r="AD44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3536,17 +3635,17 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -3554,13 +3653,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3592,8 +3691,8 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
@@ -3607,79 +3706,82 @@
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
+      <c r="X46" s="3">
+        <v>100</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>5</v>
@@ -3690,8 +3792,8 @@
       <c r="AA46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
@@ -3699,8 +3801,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3713,11 +3818,11 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3729,19 +3834,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>600</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -3759,14 +3864,14 @@
         <v>100</v>
       </c>
       <c r="V47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3785,28 +3890,31 @@
       <c r="AD47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>1500</v>
       </c>
       <c r="G48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3832,8 +3940,8 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
@@ -3841,8 +3949,8 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3850,8 +3958,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
@@ -3865,37 +3973,40 @@
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1700</v>
       </c>
       <c r="I49" s="3">
         <v>1700</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K49" s="3">
         <v>2500</v>
@@ -3904,13 +4015,13 @@
         <v>2500</v>
       </c>
       <c r="M49" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N49" s="3">
         <v>1900</v>
       </c>
       <c r="O49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="P49" s="3">
         <v>2000</v>
@@ -3922,23 +4033,23 @@
         <v>2000</v>
       </c>
       <c r="S49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T49" s="3">
         <v>2100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>1100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3948,17 +4059,20 @@
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,16 +4246,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -4150,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -4161,8 +4281,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -4179,8 +4299,8 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4194,8 +4314,8 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
@@ -4206,17 +4326,20 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,74 +4424,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E54" s="3">
         <v>18500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>2200</v>
       </c>
       <c r="P54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2400</v>
       </c>
       <c r="R54" s="3">
         <v>2400</v>
       </c>
       <c r="S54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>5</v>
       </c>
@@ -4378,8 +4504,8 @@
       <c r="AA54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
@@ -4387,8 +4513,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,40 +4581,41 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4499,10 +4630,10 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4516,8 +4647,8 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
+      <c r="X57" s="3">
+        <v>100</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>5</v>
@@ -4528,8 +4659,8 @@
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB57" s="3">
-        <v>100</v>
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
@@ -4537,31 +4668,34 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -4570,40 +4704,40 @@
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2100</v>
       </c>
       <c r="Q58" s="3">
         <v>2100</v>
       </c>
       <c r="R58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
+      <c r="X58" s="3">
+        <v>300</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>5</v>
@@ -4614,83 +4748,86 @@
       <c r="AA58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>400</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>6300</v>
       </c>
       <c r="P59" s="3">
         <v>6300</v>
       </c>
       <c r="Q59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4700,8 +4837,8 @@
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB59" s="3">
-        <v>100</v>
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
@@ -4709,74 +4846,77 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E60" s="3">
         <v>23200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4786,56 +4926,59 @@
       <c r="AA60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
@@ -4843,25 +4986,25 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>500</v>
-      </c>
-      <c r="V61" s="3">
-        <v>1100</v>
       </c>
       <c r="W61" s="3">
         <v>1100</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4876,13 +5019,16 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>400</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4890,28 +5036,28 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>700</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -4925,8 +5071,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4967,8 +5113,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,74 +5380,77 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E66" s="3">
         <v>25300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>4900</v>
       </c>
       <c r="U66" s="3">
         <v>4900</v>
       </c>
       <c r="V66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
@@ -5302,17 +5460,20 @@
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB66" s="3">
-        <v>700</v>
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC66" s="3">
         <v>700</v>
       </c>
       <c r="AD66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,13 +5680,16 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,74 +5858,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-95200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-84300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-80500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-77500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-70100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-68800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-63200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-61900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5764,17 +5938,20 @@
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-2300</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-1900</v>
       </c>
       <c r="AD72" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,74 +6214,77 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>5</v>
       </c>
@@ -6108,8 +6294,8 @@
       <c r="AA76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB76" s="3">
-        <v>-600</v>
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC76" s="3">
         <v>-600</v>
@@ -6117,8 +6303,11 @@
       <c r="AD76" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,176 +6392,182 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>41547</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>41305</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>41213</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-45900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
@@ -6380,8 +6575,11 @@
       <c r="AD81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,8 +6610,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6427,16 +6626,16 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6483,14 +6682,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
@@ -6498,8 +6697,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
       </c>
       <c r="G89" s="3">
         <v>-1200</v>
       </c>
       <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
       </c>
       <c r="O89" s="3">
         <v>-500</v>
       </c>
       <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-500</v>
       </c>
       <c r="T89" s="3">
         <v>-500</v>
       </c>
       <c r="U89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-100</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,8 +7266,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7132,8 +7353,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,8 +7531,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7319,11 +7549,11 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7342,24 +7572,24 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7370,19 +7600,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
+      <c r="Z94" s="3">
+        <v>-100</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
@@ -7390,8 +7620,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
+      <c r="Z102" s="3">
+        <v>0</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
